--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43895,6 +43895,41 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43930,6 +43930,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43965,6 +43965,43 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44002,6 +44002,41 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44037,6 +44037,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44074,6 +44074,43 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,6 +44111,43 @@
         </is>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44148,6 +44148,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44185,6 +44185,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44222,6 +44222,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44259,6 +44259,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44296,6 +44296,80 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44370,6 +44370,80 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44444,6 +44444,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44481,6 +44481,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44516,6 +44516,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44553,6 +44553,78 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44625,6 +44625,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44662,6 +44662,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64299,6 +64299,41 @@
         </is>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64334,6 +64334,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1769"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64369,6 +64369,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1770" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64406,6 +64406,43 @@
         </is>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1771" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1771"/>
+  <dimension ref="A1:I1772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64443,6 +64443,43 @@
         </is>
       </c>
     </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1772" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5047.xlsx
+++ b/data/5047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1772"/>
+  <dimension ref="A1:I1773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64480,6 +64480,43 @@
         </is>
       </c>
     </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>NPC</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1773" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
